--- a/biology/Zoologie/Refuge_d'oiseaux_d'Inkerman/Refuge_d'oiseaux_d'Inkerman.xlsx
+++ b/biology/Zoologie/Refuge_d'oiseaux_d'Inkerman/Refuge_d'oiseaux_d'Inkerman.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Refuge_d%27oiseaux_d%27Inkerman</t>
+          <t>Refuge_d'oiseaux_d'Inkerman</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le refuge d'oiseaux d'Inkerman (anglais : Inkerman Bird Sanctuary) est une aire protégée du Canada située au Nouveau-Brunswick et l'un des trois refuges d'oiseaux migrateurs de cette province. Cette aire protégée située à Inkerman a pour mission de protéger une aire de nidification de Bihoreau gris. Elle a été reconnue comme Zone importante pour la conservation des oiseaux[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le refuge d'oiseaux d'Inkerman (anglais : Inkerman Bird Sanctuary) est une aire protégée du Canada située au Nouveau-Brunswick et l'un des trois refuges d'oiseaux migrateurs de cette province. Cette aire protégée située à Inkerman a pour mission de protéger une aire de nidification de Bihoreau gris. Elle a été reconnue comme Zone importante pour la conservation des oiseaux.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Refuge_d%27oiseaux_d%27Inkerman</t>
+          <t>Refuge_d'oiseaux_d'Inkerman</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,11 @@
           <t>Géographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le refuge d'oiseaux est situé à 2 km à l'est du village d'Inkerman, sur la pointe aux Rats Musqués. Le territoire appartient à un propriétaire privé, mais le service canadien de la faune a conclu une entente avec celui-ci pour protéger le terrain[1].
-Flore
-Faune
-L'espèce nicheuse la plus remarquable est le Bihoreau gris (quelques centaines de couples : maximum de 700).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le refuge d'oiseaux est situé à 2 km à l'est du village d'Inkerman, sur la pointe aux Rats Musqués. Le territoire appartient à un propriétaire privé, mais le service canadien de la faune a conclu une entente avec celui-ci pour protéger le terrain.
 </t>
         </is>
       </c>
@@ -527,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Refuge_d%27oiseaux_d%27Inkerman</t>
+          <t>Refuge_d'oiseaux_d'Inkerman</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,10 +553,49 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Géographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Faune</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce nicheuse la plus remarquable est le Bihoreau gris (quelques centaines de couples : maximum de 700).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Refuge_d'oiseaux_d'Inkerman</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Refuge_d%27oiseaux_d%27Inkerman</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
